--- a/Data/Call/Call_CCF.xlsx
+++ b/Data/Call/Call_CCF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>FFTR</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>CCF51</t>
+  </si>
+  <si>
+    <t>CCF52</t>
   </si>
   <si>
     <t>CCF53</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,31 +534,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -563,31 +566,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -595,31 +598,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -627,31 +630,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -659,31 +662,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -691,31 +694,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -726,28 +729,28 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -755,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -767,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -787,31 +790,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -819,28 +822,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -854,28 +857,28 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -886,28 +889,28 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
       <c r="H13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -915,28 +918,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -947,31 +950,31 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -979,31 +982,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1011,31 +1014,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1043,25 +1046,25 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1075,31 +1078,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1107,31 +1110,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1139,28 +1142,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="H21">
-        <v>14</v>
-      </c>
       <c r="I21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1171,31 +1174,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1206,16 +1209,16 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -1224,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1235,31 +1238,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
       <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
         <v>12</v>
       </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
       <c r="J24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1267,31 +1270,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1302,25 +1305,25 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1331,31 +1334,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1366,28 +1369,28 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1395,31 +1398,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1427,31 +1430,63 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CCF.xlsx
+++ b/Data/Call/Call_CCF.xlsx
@@ -14,36 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Call</t>
-  </si>
-  <si>
-    <t>EMAZID Call</t>
-  </si>
-  <si>
-    <t>LIPICON Call</t>
-  </si>
-  <si>
-    <t>AGLIP Call</t>
-  </si>
-  <si>
-    <t>CIFIBET Call</t>
-  </si>
-  <si>
-    <t>AMLEVO Call</t>
-  </si>
-  <si>
-    <t>CARDOBIS Call</t>
-  </si>
-  <si>
-    <t>RIVAROX Call</t>
-  </si>
-  <si>
-    <t>Noclog Call</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>CCF10</t>
   </si>
   <si>
     <t>CCF11</t>
@@ -67,6 +73,12 @@
     <t>CCF17</t>
   </si>
   <si>
+    <t>CCF20</t>
+  </si>
+  <si>
+    <t>CCF21</t>
+  </si>
+  <si>
     <t>CCF22</t>
   </si>
   <si>
@@ -82,19 +94,25 @@
     <t>CCF26</t>
   </si>
   <si>
+    <t>CCF30</t>
+  </si>
+  <si>
     <t>CCF31</t>
   </si>
   <si>
     <t>CCF32</t>
   </si>
   <si>
+    <t>CCF33</t>
+  </si>
+  <si>
     <t>CCF34</t>
   </si>
   <si>
     <t>CCF35</t>
   </si>
   <si>
-    <t>CCF36</t>
+    <t>CCF40</t>
   </si>
   <si>
     <t>CCF41</t>
@@ -118,6 +136,9 @@
     <t>CCF47</t>
   </si>
   <si>
+    <t>CCF50</t>
+  </si>
+  <si>
     <t>CCF51</t>
   </si>
   <si>
@@ -133,7 +154,19 @@
     <t>CCF55</t>
   </si>
   <si>
-    <t>CCF57</t>
+    <t>CCF60</t>
+  </si>
+  <si>
+    <t>CCF61</t>
+  </si>
+  <si>
+    <t>CCF62</t>
+  </si>
+  <si>
+    <t>CCF63</t>
+  </si>
+  <si>
+    <t>CCF64</t>
   </si>
 </sst>
 </file>
@@ -491,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -566,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -598,31 +631,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -630,31 +663,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -662,31 +695,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -694,31 +727,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -726,31 +759,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -758,7 +791,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -790,31 +823,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -822,31 +855,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -854,31 +887,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -886,31 +919,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -918,31 +951,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -950,31 +983,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -982,31 +1015,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1046,25 +1079,25 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1078,31 +1111,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1110,31 +1143,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1142,31 +1175,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1174,31 +1207,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1206,31 +1239,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1238,31 +1271,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1270,31 +1303,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1302,28 +1335,28 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1334,13 +1367,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1349,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1358,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1366,31 +1399,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1398,31 +1431,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1430,13 +1463,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1445,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1462,31 +1495,383 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>2</v>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Call/Call_CCF.xlsx
+++ b/Data/Call/Call_CCF.xlsx
@@ -567,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,31 +631,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -663,28 +663,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -695,31 +695,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -759,31 +759,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,31 +823,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,31 +855,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -887,25 +887,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -919,31 +919,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -951,31 +951,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -983,31 +983,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1015,31 +1015,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1047,31 +1047,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1079,31 +1079,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1111,31 +1111,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1143,31 +1143,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1239,28 +1239,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1271,31 +1271,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,28 +1303,28 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1367,31 +1367,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1399,31 +1399,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1431,31 +1431,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1463,31 +1463,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1495,31 +1495,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1527,31 +1527,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1559,31 +1559,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1591,31 +1591,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1623,31 +1623,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1719,31 +1719,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1751,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1766,16 +1766,16 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1847,25 +1847,25 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
